--- a/data/DSSS_01.xlsx
+++ b/data/DSSS_01.xlsx
@@ -454,49 +454,49 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -504,49 +504,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K3">
         <v>9</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>6</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -557,46 +557,46 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -604,49 +604,49 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -654,49 +654,49 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -707,43 +707,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -754,49 +754,49 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -804,49 +804,49 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -854,49 +854,49 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -904,25 +904,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -931,22 +931,22 @@
         <v>2</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -954,49 +954,49 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>9</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1004,49 +1004,49 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>8</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1054,49 +1054,49 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1104,49 +1104,49 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1157,43 +1157,43 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P16">
         <v>3</v>
@@ -1204,49 +1204,49 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>7</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>8</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1254,49 +1254,49 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1304,49 +1304,49 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1354,46 +1354,46 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>7</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -1404,49 +1404,49 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>6</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
